--- a/planilha_atualizada.xlsx
+++ b/planilha_atualizada.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RITM3720</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RITM9892</t>
         </is>
       </c>
     </row>

--- a/planilha_atualizada.xlsx
+++ b/planilha_atualizada.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RITM9892</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RITM3589</t>
         </is>
       </c>
     </row>

--- a/planilha_atualizada.xlsx
+++ b/planilha_atualizada.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>RITM6894</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RITM3589</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
